--- a/biology/Médecine/ALPK3/ALPK3.xlsx
+++ b/biology/Médecine/ALPK3/ALPK3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ALPK3 (pour « Alpha-protein kinase 3 ») est une protéine kinase. Son gène, ALPK3 est situé le chromosome 15 humain.
 </t>
@@ -511,11 +523,13 @@
           <t>Rôle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bien qu'ayant un domaine de type kinase, il n'a pas été retrouvé d'activité catalytique[5].
-Il intervient dans la régulation du calcium intra-cellulaire[6].
-Il est exprimé dans la membrane nucléaire des cardiomyocytes ainsi que par le disque M du sarcomère où il régule l'activité des myomésines[5]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bien qu'ayant un domaine de type kinase, il n'a pas été retrouvé d'activité catalytique.
+Il intervient dans la régulation du calcium intra-cellulaire.
+Il est exprimé dans la membrane nucléaire des cardiomyocytes ainsi que par le disque M du sarcomère où il régule l'activité des myomésines. 
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La mutation de ce gène peut provoquer, si elle est bi-allélique, une cardiomyopathie sévère de l'enfant[7], avec une présentation variable[8] : cardiomyopathie hypertrophique, non-compaction ventriculaire gauche. Le syndrome peut comporter des déformations squelettiques ou une fente labio-palatine[9].
-La présence d'un seul allèle muté est également responsable de cardiomyopathie découverte à l'âge adulte[10].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La mutation de ce gène peut provoquer, si elle est bi-allélique, une cardiomyopathie sévère de l'enfant, avec une présentation variable : cardiomyopathie hypertrophique, non-compaction ventriculaire gauche. Le syndrome peut comporter des déformations squelettiques ou une fente labio-palatine.
+La présence d'un seul allèle muté est également responsable de cardiomyopathie découverte à l'âge adulte.
 </t>
         </is>
       </c>
